--- a/Employee_Reports29/Marty Tolosa Ambas Q0229.xlsx
+++ b/Employee_Reports29/Marty Tolosa Ambas Q0229.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -459,7 +463,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="59" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -568,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -617,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -666,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -715,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -764,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -813,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -862,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -911,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -960,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1009,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1058,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1107,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1135,8 +1139,10 @@
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
-        <v/>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
@@ -1154,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -1183,8 +1189,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
-        <v/>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -1202,11 +1210,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1230,8 +1238,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
-        <v/>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-028</t>
+        </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
@@ -1249,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>-180</v>
+        <v>-181</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1277,8 +1287,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
-        <v/>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-035</t>
+        </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
@@ -1296,11 +1308,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1333,11 +1345,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-36</v>
+        <v>-37</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1361,8 +1373,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D20" s="3" t="n">
-        <v/>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
@@ -1380,11 +1394,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
